--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H2">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I2">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J2">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>691.3273529792444</v>
+        <v>1249.608637191303</v>
       </c>
       <c r="R2">
-        <v>691.3273529792444</v>
+        <v>11246.47773472173</v>
       </c>
       <c r="S2">
-        <v>0.009458924274829777</v>
+        <v>0.01585072338666647</v>
       </c>
       <c r="T2">
-        <v>0.009458924274829777</v>
+        <v>0.01585072338666648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H3">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I3">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J3">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>17710.82580734616</v>
+        <v>18667.43126904838</v>
       </c>
       <c r="R3">
-        <v>17710.82580734616</v>
+        <v>168006.8814214354</v>
       </c>
       <c r="S3">
-        <v>0.2423242179474676</v>
+        <v>0.2367879675114601</v>
       </c>
       <c r="T3">
-        <v>0.2423242179474676</v>
+        <v>0.2367879675114601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H4">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I4">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J4">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>2223.48065556542</v>
+        <v>2383.645413840355</v>
       </c>
       <c r="R4">
-        <v>2223.48065556542</v>
+        <v>21452.8087245632</v>
       </c>
       <c r="S4">
-        <v>0.03042225229033228</v>
+        <v>0.03023546971602396</v>
       </c>
       <c r="T4">
-        <v>0.03042225229033228</v>
+        <v>0.03023546971602396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H5">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J5">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>1145.957137389427</v>
+        <v>2011.403773532873</v>
       </c>
       <c r="R5">
-        <v>1145.957137389427</v>
+        <v>18102.63396179586</v>
       </c>
       <c r="S5">
-        <v>0.01567928961302465</v>
+        <v>0.02551375197343955</v>
       </c>
       <c r="T5">
-        <v>0.01567928961302465</v>
+        <v>0.02551375197343956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H6">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J6">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>29357.79577580019</v>
+        <v>30047.60096819119</v>
       </c>
       <c r="R6">
-        <v>29357.79577580019</v>
+        <v>270428.4087137207</v>
       </c>
       <c r="S6">
-        <v>0.4016811513713514</v>
+        <v>0.3811403004145665</v>
       </c>
       <c r="T6">
-        <v>0.4016811513713514</v>
+        <v>0.3811403004145665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H7">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J7">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>3685.68307924164</v>
+        <v>3836.779962516241</v>
       </c>
       <c r="R7">
-        <v>3685.68307924164</v>
+        <v>34531.01966264617</v>
       </c>
       <c r="S7">
-        <v>0.05042849382037222</v>
+        <v>0.04866782772728162</v>
       </c>
       <c r="T7">
-        <v>0.05042849382037222</v>
+        <v>0.04866782772728163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H8">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I8">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J8">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>612.4466856535688</v>
+        <v>1156.530126488366</v>
       </c>
       <c r="R8">
-        <v>612.4466856535688</v>
+        <v>10408.7711383953</v>
       </c>
       <c r="S8">
-        <v>0.008379658054903419</v>
+        <v>0.01467006435272187</v>
       </c>
       <c r="T8">
-        <v>0.008379658054903419</v>
+        <v>0.01467006435272187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H9">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I9">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J9">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>15690.0150401289</v>
+        <v>17276.96656717352</v>
       </c>
       <c r="R9">
-        <v>15690.0150401289</v>
+        <v>155492.6991045617</v>
       </c>
       <c r="S9">
-        <v>0.2146749488443506</v>
+        <v>0.2191505483128539</v>
       </c>
       <c r="T9">
-        <v>0.2146749488443506</v>
+        <v>0.2191505483128539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H10">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I10">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J10">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>1969.780816927621</v>
+        <v>2206.096892998802</v>
       </c>
       <c r="R10">
-        <v>1969.780816927621</v>
+        <v>19854.87203698922</v>
       </c>
       <c r="S10">
-        <v>0.02695106378336818</v>
+        <v>0.02798334660498594</v>
       </c>
       <c r="T10">
-        <v>0.02695106378336818</v>
+        <v>0.02798334660498595</v>
       </c>
     </row>
   </sheetData>
